--- a/docs/DJ-System_Project_Sheet_Timeline.xlsx
+++ b/docs/DJ-System_Project_Sheet_Timeline.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chanetw/Documents/DJ-System/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0044234-40CF-434B-B677-92631B8AC5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="29400" yWindow="600" windowWidth="38400" windowHeight="19480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cover" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Project Overview" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Visual Gantt" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Gantt Chart" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Task List" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Weekly Timeline" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Change History" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Features by Role" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Change1" sheetId="9" r:id="rId1"/>
+    <sheet name="Cover" sheetId="1" r:id="rId2"/>
+    <sheet name="Project Overview" sheetId="2" r:id="rId3"/>
+    <sheet name="Visual Gantt" sheetId="3" r:id="rId4"/>
+    <sheet name="Gantt Chart" sheetId="4" r:id="rId5"/>
+    <sheet name="Task List" sheetId="5" r:id="rId6"/>
+    <sheet name="Weekly Timeline" sheetId="6" r:id="rId7"/>
+    <sheet name="Change History" sheetId="7" r:id="rId8"/>
+    <sheet name="Features by Role" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="343">
-  <si>
-    <t xml:space="preserve">DJ-System: Project Sheet &amp; Timeline</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="386">
+  <si>
+    <t>DJ-System: Project Sheet &amp; Timeline</t>
   </si>
   <si>
     <r>
@@ -46,8 +52,7 @@
         <sz val="12"/>
         <color rgb="FF666666"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">(Design Job Management) </t>
     </r>
@@ -65,17 +70,16 @@
         <sz val="12"/>
         <color rgb="FF666666"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SENA</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">สรุปสถานะโครงการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระยะเวลาโครงการ</t>
+        <family val="1"/>
+      </rPr>
+      <t>SENA</t>
+    </r>
+  </si>
+  <si>
+    <t>สรุปสถานะโครงการ</t>
+  </si>
+  <si>
+    <t>ระยะเวลาโครงการ</t>
   </si>
   <si>
     <r>
@@ -83,8 +87,7 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">17 </t>
     </r>
@@ -95,17 +98,16 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
+      <t>ม</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -114,15 +116,14 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ค</t>
+      <t>ค</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">. - 5 </t>
     </r>
@@ -133,17 +134,16 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">เม</t>
+      <t>เม</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -152,17 +152,16 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ย</t>
+      <t>ย</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569 (</t>
+        <family val="1"/>
+      </rPr>
+      <t>. 2569 (</t>
     </r>
     <r>
       <rPr>
@@ -178,8 +177,7 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">11 </t>
     </r>
@@ -190,29 +188,28 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">สัปดาห์</t>
+      <t>สัปดาห์</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">สถานะปัจจุบัน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 4: Stabilization &amp; Documentation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>สถานะปัจจุบัน</t>
+  </si>
+  <si>
+    <t>Phase 4: Stabilization &amp; Documentation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
@@ -221,22 +218,21 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Milestones</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Milestones</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Milestones</t>
+    </r>
+  </si>
+  <si>
+    <t>6 Milestones</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
@@ -245,13 +241,12 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Requirement Changes</t>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Requirement Changes</t>
     </r>
   </si>
   <si>
@@ -260,8 +255,7 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">7 </t>
     </r>
@@ -272,32 +266,32 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ครั้ง</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ความพร้อมใช้งาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production Ready / UAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สารบัญเอกสาร</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายละเอียด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ภาพรวมโครงการ วัตถุประสงค์ และโครงสร้างระบบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Gantt</t>
+      <t>ครั้ง</t>
+    </r>
+  </si>
+  <si>
+    <t>ความพร้อมใช้งาน</t>
+  </si>
+  <si>
+    <t>Production Ready / UAT</t>
+  </si>
+  <si>
+    <t>สารบัญเอกสาร</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>Project Overview</t>
+  </si>
+  <si>
+    <t>ภาพรวมโครงการ วัตถุประสงค์ และโครงสร้างระบบ</t>
+  </si>
+  <si>
+    <t>Visual Gantt</t>
   </si>
   <si>
     <r>
@@ -326,23 +320,23 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">แบบแถบสี</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Gantt Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ไทม์ไลน์การพัฒนาแบบตาราง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายการงานพร้อมสถานะและผู้รับผิดชอบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weekly Timeline</t>
+      <t>แบบแถบสี</t>
+    </r>
+  </si>
+  <si>
+    <t>Gantt Chart</t>
+  </si>
+  <si>
+    <t>ไทม์ไลน์การพัฒนาแบบตาราง</t>
+  </si>
+  <si>
+    <t>Task List</t>
+  </si>
+  <si>
+    <t>รายการงานพร้อมสถานะและผู้รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>Weekly Timeline</t>
   </si>
   <si>
     <r>
@@ -362,20 +356,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Deliverables</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Change History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บันทึกการเปลี่ยนแปลงความต้องการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Features by Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฟีเจอร์ตามบทบาทผู้ใช้งาน</t>
+      <t>Deliverables</t>
+    </r>
+  </si>
+  <si>
+    <t>Change History</t>
+  </si>
+  <si>
+    <t>บันทึกการเปลี่ยนแปลงความต้องการ</t>
+  </si>
+  <si>
+    <t>Features by Role</t>
+  </si>
+  <si>
+    <t>ฟีเจอร์ตามบทบาทผู้ใช้งาน</t>
   </si>
   <si>
     <r>
@@ -385,15 +379,14 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">จัดทำเมื่อ</t>
+      <t>จัดทำเมื่อ</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF999999"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">: 11 </t>
     </r>
@@ -411,10 +404,9 @@
         <sz val="10"/>
         <color rgb="FF999999"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2569</t>
+        <family val="1"/>
+      </rPr>
+      <t>2569</t>
     </r>
   </si>
   <si>
@@ -425,23 +417,22 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">โดย</t>
+      <t>โดย</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF999999"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Antigravity Project Manager</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Antigravity Project Manager</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="FreeSans"/>
@@ -451,37 +442,35 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DJ-System</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>DJ-System</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัตถุประสงค์โครงการ</t>
+      <t>วัตถุประสงค์โครงการ</t>
     </r>
   </si>
   <si>
@@ -497,8 +486,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">(Design Job Management) </t>
     </r>
@@ -514,8 +502,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">SENA </t>
     </r>
@@ -531,27 +518,25 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Modular Architecture</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>Modular Architecture</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
@@ -561,24 +546,23 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Core Modules)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">โมดูล</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สถานะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth Service</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Core Modules)</t>
+    </r>
+  </si>
+  <si>
+    <t>โมดูล</t>
+  </si>
+  <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
+    <t>Auth Service</t>
   </si>
   <si>
     <r>
@@ -617,14 +601,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Role</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">✅ เสร็จสมบูรณ์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenant Management</t>
+      <t>Role</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ เสร็จสมบูรณ์</t>
+  </si>
+  <si>
+    <t>Tenant Management</t>
   </si>
   <si>
     <r>
@@ -663,11 +647,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Department)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User Management</t>
+      <t>(Department)</t>
+    </r>
+  </si>
+  <si>
+    <t>User Management</t>
   </si>
   <si>
     <r>
@@ -687,24 +671,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Scope)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(Scope)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
@@ -714,18 +697,17 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Feature Modules)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Request</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Feature Modules)</t>
+    </r>
+  </si>
+  <si>
+    <t>Job Request</t>
   </si>
   <si>
     <r>
@@ -745,11 +727,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Priority</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval System</t>
+      <t>Priority</t>
+    </r>
+  </si>
+  <si>
+    <t>Approval System</t>
   </si>
   <si>
     <r>
@@ -778,17 +760,17 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">และการข้ามการอนุมัติ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Assignment Matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบบจ่ายงานอัตโนมัติตามประเภทงานและโครงการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Tracking</t>
+      <t>และการข้ามการอนุมัติ</t>
+    </r>
+  </si>
+  <si>
+    <t>Assignment Matrix</t>
+  </si>
+  <si>
+    <t>ระบบจ่ายงานอัตโนมัติตามประเภทงานและโครงการ</t>
+  </si>
+  <si>
+    <t>Job Tracking</t>
   </si>
   <si>
     <r>
@@ -808,24 +790,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Activity Logs</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>Activity Logs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">4. </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
@@ -835,47 +816,46 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Organization Hierarchy)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ระดับ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คำอธิบาย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ตัวอย่าง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenant</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">องค์กร</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Organization Hierarchy)</t>
+    </r>
+  </si>
+  <si>
+    <t>ระดับ</t>
+  </si>
+  <si>
+    <t>คำอธิบาย</t>
+  </si>
+  <si>
+    <t>ตัวอย่าง</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>องค์กร</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -894,53 +874,53 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ระดับสูงสุด</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SENA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ฝ่าย</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ระดับสูงสุด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>SENA</t>
+  </si>
+  <si>
+    <t>BUD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ฝ่าย</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -959,229 +939,229 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Business Unit Design)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential 1, Commercial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โครงการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sena Kith, Niche Mono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department</t>
-  </si>
-  <si>
-    <t xml:space="preserve">แผนก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing, Graphic, IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ-System Visual Gantt Chart 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modular Architecture V2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✅ Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication Core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Request Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approval Workflow V1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-Assignment Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Detail V2 Enhancements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🟡 Active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Portals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⏳ Pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reporting &amp; KPI Dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Feb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Real-time Notifications</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Performance Optimization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAT &amp; Bug Fixing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 Mar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Production Deployment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01 Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05 Apr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ-System Development Roadmap 2026 - Gantt Chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">งาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันเริ่มต้น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันสิ้นสุด</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(Business Unit Design)</t>
+    </r>
+  </si>
+  <si>
+    <t>Residential 1, Commercial</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>โครงการ</t>
+  </si>
+  <si>
+    <t>Sena Kith, Niche Mono</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>แผนก</t>
+  </si>
+  <si>
+    <t>Marketing, Graphic, IT</t>
+  </si>
+  <si>
+    <t>DJ-System Visual Gantt Chart 2026</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>05 Jan</t>
+  </si>
+  <si>
+    <t>12 Jan</t>
+  </si>
+  <si>
+    <t>19 Jan</t>
+  </si>
+  <si>
+    <t>26 Jan</t>
+  </si>
+  <si>
+    <t>02 Feb</t>
+  </si>
+  <si>
+    <t>09 Feb</t>
+  </si>
+  <si>
+    <t>16 Feb</t>
+  </si>
+  <si>
+    <t>23 Feb</t>
+  </si>
+  <si>
+    <t>02 Mar</t>
+  </si>
+  <si>
+    <t>09 Mar</t>
+  </si>
+  <si>
+    <t>16 Mar</t>
+  </si>
+  <si>
+    <t>23 Mar</t>
+  </si>
+  <si>
+    <t>30 Mar</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Modular Architecture V2</t>
+  </si>
+  <si>
+    <t>01 Jan</t>
+  </si>
+  <si>
+    <t>15 Jan</t>
+  </si>
+  <si>
+    <t>✅ Done</t>
+  </si>
+  <si>
+    <t>Database Integration</t>
+  </si>
+  <si>
+    <t>10 Jan</t>
+  </si>
+  <si>
+    <t>20 Jan</t>
+  </si>
+  <si>
+    <t>Authentication Core</t>
+  </si>
+  <si>
+    <t>25 Jan</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Job Request Management</t>
+  </si>
+  <si>
+    <t>05 Feb</t>
+  </si>
+  <si>
+    <t>Approval Workflow V1</t>
+  </si>
+  <si>
+    <t>10 Feb</t>
+  </si>
+  <si>
+    <t>Auto-Assignment Logic</t>
+  </si>
+  <si>
+    <t>01 Feb</t>
+  </si>
+  <si>
+    <t>11 Feb</t>
+  </si>
+  <si>
+    <t>Job Detail V2 Enhancements</t>
+  </si>
+  <si>
+    <t>20 Feb</t>
+  </si>
+  <si>
+    <t>🟡 Active</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>User Portals</t>
+  </si>
+  <si>
+    <t>15 Feb</t>
+  </si>
+  <si>
+    <t>05 Mar</t>
+  </si>
+  <si>
+    <t>⏳ Pending</t>
+  </si>
+  <si>
+    <t>Reporting &amp; KPI Dashboard</t>
+  </si>
+  <si>
+    <t>25 Feb</t>
+  </si>
+  <si>
+    <t>15 Mar</t>
+  </si>
+  <si>
+    <t>Real-time Notifications</t>
+  </si>
+  <si>
+    <t>01 Mar</t>
+  </si>
+  <si>
+    <t>10 Mar</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Performance Optimization</t>
+  </si>
+  <si>
+    <t>25 Mar</t>
+  </si>
+  <si>
+    <t>UAT &amp; Bug Fixing</t>
+  </si>
+  <si>
+    <t>20 Mar</t>
+  </si>
+  <si>
+    <t>31 Mar</t>
+  </si>
+  <si>
+    <t>Production Deployment</t>
+  </si>
+  <si>
+    <t>01 Apr</t>
+  </si>
+  <si>
+    <t>05 Apr</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t>DJ-System Development Roadmap 2026 - Gantt Chart</t>
+  </si>
+  <si>
+    <t>งาน</t>
+  </si>
+  <si>
+    <t>วันเริ่มต้น</t>
+  </si>
+  <si>
+    <t>วันสิ้นสุด</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="FreeSans"/>
@@ -1191,149 +1171,146 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>วัน</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 1: Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Database Integration (Supabase)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 2: Core Features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">🟡 กำลังดำเนินการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 3: Portals &amp; Analytics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Portals (Requester/Approver)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⏳ รอดำเนินการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-02-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 4: Launch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-03-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2026-04-05</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">คำอธิบายสถานะ</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Phase 1: Foundation</t>
+  </si>
+  <si>
+    <t>2026-01-01</t>
+  </si>
+  <si>
+    <t>2026-01-15</t>
+  </si>
+  <si>
+    <t>Database Integration (Supabase)</t>
+  </si>
+  <si>
+    <t>2026-01-10</t>
+  </si>
+  <si>
+    <t>2026-01-20</t>
+  </si>
+  <si>
+    <t>2026-01-25</t>
+  </si>
+  <si>
+    <t>Phase 2: Core Features</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-01</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>🟡 กำลังดำเนินการ</t>
+  </si>
+  <si>
+    <t>Phase 3: Portals &amp; Analytics</t>
+  </si>
+  <si>
+    <t>User Portals (Requester/Approver)</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>2026-03-05</t>
+  </si>
+  <si>
+    <t>⏳ รอดำเนินการ</t>
+  </si>
+  <si>
+    <t>2026-02-25</t>
+  </si>
+  <si>
+    <t>2026-03-15</t>
+  </si>
+  <si>
+    <t>2026-03-01</t>
+  </si>
+  <si>
+    <t>2026-03-10</t>
+  </si>
+  <si>
+    <t>Phase 4: Launch</t>
+  </si>
+  <si>
+    <t>2026-03-25</t>
+  </si>
+  <si>
+    <t>2026-03-20</t>
+  </si>
+  <si>
+    <t>2026-03-31</t>
+  </si>
+  <si>
+    <t>2026-04-01</t>
+  </si>
+  <si>
+    <t>2026-04-05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>คำอธิบายสถานะ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="FreeSans"/>
@@ -1343,27 +1320,26 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DJ-System</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">รหัส</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระยะเวลา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผู้รับผิดชอบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1-01</t>
+        <family val="1"/>
+      </rPr>
+      <t>DJ-System</t>
+    </r>
+  </si>
+  <si>
+    <t>รหัส</t>
+  </si>
+  <si>
+    <t>ระยะเวลา</t>
+  </si>
+  <si>
+    <t>ผู้รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>P1-01</t>
   </si>
   <si>
     <r>
@@ -1383,14 +1359,14 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Dev Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1-02</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>Dev Team</t>
+  </si>
+  <si>
+    <t>P1-02</t>
   </si>
   <si>
     <r>
@@ -1410,20 +1386,20 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Backend Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Security Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2-01</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>Backend Team</t>
+  </si>
+  <si>
+    <t>P1-03</t>
+  </si>
+  <si>
+    <t>Security Team</t>
+  </si>
+  <si>
+    <t>P2-01</t>
   </si>
   <si>
     <r>
@@ -1443,26 +1419,26 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Fullstack Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frontend Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3-01</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>Fullstack Team</t>
+  </si>
+  <si>
+    <t>P2-02</t>
+  </si>
+  <si>
+    <t>P2-03</t>
+  </si>
+  <si>
+    <t>P2-04</t>
+  </si>
+  <si>
+    <t>Frontend Team</t>
+  </si>
+  <si>
+    <t>P3-01</t>
   </si>
   <si>
     <r>
@@ -1482,17 +1458,17 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">P3-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3-03</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>P3-02</t>
+  </si>
+  <si>
+    <t>Data Team</t>
+  </si>
+  <si>
+    <t>P3-03</t>
   </si>
   <si>
     <r>
@@ -1512,17 +1488,17 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">P4-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DevOps Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4-02</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>P4-01</t>
+  </si>
+  <si>
+    <t>DevOps Team</t>
+  </si>
+  <si>
+    <t>P4-02</t>
   </si>
   <si>
     <r>
@@ -1542,14 +1518,14 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">QA Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4-03</t>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>QA Team</t>
+  </si>
+  <si>
+    <t>P4-03</t>
   </si>
   <si>
     <r>
@@ -1569,61 +1545,61 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">สรุปความคืบหน้า</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จำนวน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เปอร์เซ็นต์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">งานเสร็จสมบูรณ์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">งานกำลังดำเนินการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">งานรอดำเนินการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รวมทั้งหมด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>วัน</t>
+    </r>
+  </si>
+  <si>
+    <t>สรุปความคืบหน้า</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>เปอร์เซ็นต์</t>
+  </si>
+  <si>
+    <t>งานเสร็จสมบูรณ์</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>53.8%</t>
+  </si>
+  <si>
+    <t>งานกำลังดำเนินการ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>งานรอดำเนินการ</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>38.5%</t>
+  </si>
+  <si>
+    <t>รวมทั้งหมด</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="FreeSans"/>
@@ -1633,33 +1609,32 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Weekly Timeline)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">สัปดาห์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ช่วงเวลา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กิจกรรมหลัก</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฟังก์ชันที่ส่งมอบ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จุดเปลี่ยนความต้องการ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 1</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Weekly Timeline)</t>
+    </r>
+  </si>
+  <si>
+    <t>สัปดาห์</t>
+  </si>
+  <si>
+    <t>ช่วงเวลา</t>
+  </si>
+  <si>
+    <t>กิจกรรมหลัก</t>
+  </si>
+  <si>
+    <t>ฟังก์ชันที่ส่งมอบ</t>
+  </si>
+  <si>
+    <t>จุดเปลี่ยนความต้องการ</t>
+  </si>
+  <si>
+    <t>Week 1</t>
   </si>
   <si>
     <r>
@@ -1679,40 +1654,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 69</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Foundation &amp; Setup</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 69</t>
+    </r>
+  </si>
+  <si>
+    <t>Foundation &amp; Setup</t>
   </si>
   <si>
     <r>
@@ -1751,7 +1726,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">เบื้องต้น</t>
+      <t>เบื้องต้น</t>
     </r>
   </si>
   <si>
@@ -1801,11 +1776,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">V1 | Change #2: Modular Architecture</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 2</t>
+      <t>V1 | Change #2: Modular Architecture</t>
+    </r>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <r>
@@ -1825,40 +1800,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 69</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Workflow &amp; API Integration</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 69</t>
+    </r>
+  </si>
+  <si>
+    <t>Core Workflow &amp; API Integration</t>
   </si>
   <si>
     <r>
@@ -1887,7 +1862,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">จัดการวันหยุด</t>
+      <t>จัดการวันหยุด</t>
     </r>
   </si>
   <si>
@@ -1937,11 +1912,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Backend REST API</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 3</t>
+      <t>Backend REST API</t>
+    </r>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <r>
@@ -1961,26 +1936,26 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
     </r>
     <r>
       <rPr>
@@ -1999,40 +1974,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 69</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Features &amp; Workflow</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 69</t>
+    </r>
+  </si>
+  <si>
+    <t>Advanced Features &amp; Workflow</t>
   </si>
   <si>
     <r>
@@ -2062,7 +2037,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Job Chaining), Comments &amp; Activity Logs</t>
+      <t>(Job Chaining), Comments &amp; Activity Logs</t>
     </r>
   </si>
   <si>
@@ -2093,11 +2068,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Tenant -&gt; Company Scope)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 4</t>
+      <t>(Tenant -&gt; Company Scope)</t>
+    </r>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <r>
@@ -2117,43 +2092,43 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 69</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Refinement &amp; Standardization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Registration Approval Flow, Parent-Child Jobs, Analytics/KPI Dashboard (Initial)</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 69</t>
+    </r>
+  </si>
+  <si>
+    <t>Refinement &amp; Standardization</t>
+  </si>
+  <si>
+    <t>User Registration Approval Flow, Parent-Child Jobs, Analytics/KPI Dashboard (Initial)</t>
   </si>
   <si>
     <r>
@@ -2183,11 +2158,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Role | Change #6: V2 Auth -&gt; V1 DB 100%</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 5</t>
+      <t>Role | Change #6: V2 Auth -&gt; V1 DB 100%</t>
+    </r>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <r>
@@ -2207,26 +2182,26 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
     </r>
     <r>
       <rPr>
@@ -2245,11 +2220,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ปัจจุบัน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Deployment &amp; Summary</t>
+      <t>ปัจจุบัน</t>
+    </r>
+  </si>
+  <si>
+    <t>Deployment &amp; Summary</t>
   </si>
   <si>
     <r>
@@ -2297,7 +2272,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">เอกสารระบบ</t>
+      <t>เอกสารระบบ</t>
     </r>
     <r>
       <rPr>
@@ -2316,23 +2291,23 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วิดีโอ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายละเอียดฟังก์ชันสำคัญ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฟังก์ชัน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ความสามารถ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบบจัดการองค์กรและผู้ใช้</t>
+      <t>วิดีโอ</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>รายละเอียดฟังก์ชันสำคัญ</t>
+  </si>
+  <si>
+    <t>ฟังก์ชัน</t>
+  </si>
+  <si>
+    <t>ความสามารถ</t>
+  </si>
+  <si>
+    <t>ระบบจัดการองค์กรและผู้ใช้</t>
   </si>
   <si>
     <r>
@@ -2371,11 +2346,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Admin</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบบจัดการวันหยุด</t>
+      <t>Admin</t>
+    </r>
+  </si>
+  <si>
+    <t>ระบบจัดการวันหยุด</t>
   </si>
   <si>
     <r>
@@ -2395,49 +2370,49 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SLA (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ไม่นับวันหยุดและวันเสาร์</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">อาทิตย์</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ระบบจ่ายงานอัตโนมัติ</t>
+      <t>SLA (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ไม่นับวันหยุดและวันเสาร์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>อาทิตย์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>ระบบจ่ายงานอัตโนมัติ</t>
   </si>
   <si>
     <r>
@@ -2466,11 +2441,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ในการมอบหมายงานด้วยมือ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ระยะเวลารวม</t>
+      <t>ในการมอบหมายงานด้วยมือ</t>
+    </r>
+  </si>
+  <si>
+    <t>ระยะเวลารวม</t>
   </si>
   <si>
     <r>
@@ -2487,8 +2462,7 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -2506,8 +2480,7 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">(26 </t>
     </r>
@@ -2518,23 +2491,22 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">วัน</t>
+      <t>วัน</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
@@ -2543,26 +2515,25 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Milestone </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ที่ผ่าน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ความพร้อมในการใช้งาน</t>
+        <b/>
+        <sz val="11"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ที่ผ่าน</t>
+    </r>
+  </si>
+  <si>
+    <t>ความพร้อมในการใช้งาน</t>
   </si>
   <si>
     <r>
@@ -2579,16 +2550,15 @@
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Production/UAT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>Production/UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="FreeSans"/>
@@ -2598,33 +2568,32 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Change History)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Change #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันที่</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หัวข้อ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จากเดิม</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เปลี่ยนเป็น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Change History)</t>
+    </r>
+  </si>
+  <si>
+    <t>Change #</t>
+  </si>
+  <si>
+    <t>วันที่</t>
+  </si>
+  <si>
+    <t>หัวข้อ</t>
+  </si>
+  <si>
+    <t>จากเดิม</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็น</t>
+  </si>
+  <si>
+    <t>#1</t>
   </si>
   <si>
     <r>
@@ -2644,40 +2613,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Unification of Database Tables</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Unification of Database Tables</t>
   </si>
   <si>
     <r>
@@ -2725,7 +2694,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ออกจากระบบเดิม</t>
+      <t>ออกจากระบบเดิม</t>
     </r>
   </si>
   <si>
@@ -2755,11 +2724,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">เพื่อป้องกันข้อมูลซ้ำซ้อน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#2</t>
+      <t>เพื่อป้องกันข้อมูลซ้ำซ้อน</t>
+    </r>
+  </si>
+  <si>
+    <t>#2</t>
   </si>
   <si>
     <r>
@@ -2779,43 +2748,43 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Transition to Modular Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โครงสร้างโค้ดแบบเดิมที่ทุกอย่างอยู่ในโฟลเดอร์เดียว</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Transition to Modular Architecture</t>
+  </si>
+  <si>
+    <t>โครงสร้างโค้ดแบบเดิมที่ทุกอย่างอยู่ในโฟลเดอร์เดียว</t>
   </si>
   <si>
     <r>
@@ -2835,11 +2804,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Modular Architecture (Plugin Style)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#3</t>
+      <t>Modular Architecture (Plugin Style)</t>
+    </r>
+  </si>
+  <si>
+    <t>#3</t>
   </si>
   <si>
     <r>
@@ -2859,40 +2828,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ม</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ค</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Security &amp; REST API Migration</t>
+      <t>ม</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ค</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Security &amp; REST API Migration</t>
   </si>
   <si>
     <r>
@@ -2941,7 +2910,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Direct Query)</t>
+      <t>(Direct Query)</t>
     </r>
   </si>
   <si>
@@ -2971,11 +2940,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">มาคั่นกลางเพื่อความปลอดภัย</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#4</t>
+      <t>มาคั่นกลางเพื่อความปลอดภัย</t>
+    </r>
+  </si>
+  <si>
+    <t>#4</t>
   </si>
   <si>
     <r>
@@ -2995,40 +2964,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission Scope Refactoring</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Permission Scope Refactoring</t>
   </si>
   <si>
     <r>
@@ -3057,7 +3026,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ซึ่งซ้ำซ้อนกับข้อมูลบริษัท</t>
+      <t>ซึ่งซ้ำซ้อนกับข้อมูลบริษัท</t>
     </r>
   </si>
   <si>
@@ -3106,11 +3075,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">เพื่อความชัดเจน</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#5</t>
+      <t>เพื่อความชัดเจน</t>
+    </r>
+  </si>
+  <si>
+    <t>#5</t>
   </si>
   <si>
     <r>
@@ -3130,40 +3099,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Role Naming Standardization</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Role Naming Standardization</t>
   </si>
   <si>
     <r>
@@ -3183,32 +3152,32 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(OrgAdmin, Marketing, User)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">มาตรฐานใหม่</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">: Requester, Approver, Assignee, Admin</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#6</t>
+      <t>(OrgAdmin, Marketing, User)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>มาตรฐานใหม่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: Requester, Approver, Assignee, Admin</t>
+    </r>
+  </si>
+  <si>
+    <t>#6</t>
   </si>
   <si>
     <r>
@@ -3228,40 +3197,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Full System Integration (V2 Auth to V1 DB)</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Full System Integration (V2 Auth to V1 DB)</t>
   </si>
   <si>
     <r>
@@ -3328,7 +3297,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ไม่ได้</t>
+      <t>ไม่ได้</t>
     </r>
   </si>
   <si>
@@ -3396,11 +3365,11 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ได้อย่างไร้รอยต่อ</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">#7</t>
+      <t>ได้อย่างไร้รอยต่อ</t>
+    </r>
+  </si>
+  <si>
+    <t>#7</t>
   </si>
   <si>
     <r>
@@ -3420,40 +3389,40 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ก</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">พ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. 2569</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequential Job Chaining + Cascade Reject</t>
+      <t>ก</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>พ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>. 2569</t>
+    </r>
+  </si>
+  <si>
+    <t>Sequential Job Chaining + Cascade Reject</t>
   </si>
   <si>
     <r>
@@ -3482,22 +3451,21 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">สร้างได้ทีละระดับเดียว</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited Full-Chain (MAX_DEPTH=3), Urgent Job Reschedule, Cascade Reject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เหตุผลเบื้องหลังจุดเปลี่ยน</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+      <t>สร้างได้ทีละระดับเดียว</t>
+    </r>
+  </si>
+  <si>
+    <t>Limited Full-Chain (MAX_DEPTH=3), Urgent Job Reschedule, Cascade Reject</t>
+  </si>
+  <si>
+    <t>เหตุผลเบื้องหลังจุดเปลี่ยน</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1. Scalability: </t>
     </r>
@@ -3507,16 +3475,15 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">รองรับโครงการจำนวนมากได้ในอนาคต</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+      <t>รองรับโครงการจำนวนมากได้ในอนาคต</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2. Security: </t>
     </r>
@@ -3526,16 +3493,15 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ข้อมูลมีความปลอดภัยตามมาตรฐานสากล</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+      <t>ข้อมูลมีความปลอดภัยตามมาตรฐานสากล</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">3. Consistency: </t>
     </r>
@@ -3551,8 +3517,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">(UX) </t>
     </r>
@@ -3562,13 +3527,13 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ราบรื่นและลดความสับสน</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ราบรื่นและลดความสับสน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
@@ -3578,56 +3543,55 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Change #7</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ไฟล์</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บทบาท</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backend/api-server/src/config/chainConfig.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backend/api-server/src/services/chainService.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backend/api-server/src/services/approvalService.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cascade Reject Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backend/api-server/src/routes/jobs.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Route Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">docs/03-features/JOB-CHAINING-GUIDE.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Documentation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>Change #7</t>
+    </r>
+  </si>
+  <si>
+    <t>ไฟล์</t>
+  </si>
+  <si>
+    <t>บทบาท</t>
+  </si>
+  <si>
+    <t>backend/api-server/src/config/chainConfig.js</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>backend/api-server/src/services/chainService.js</t>
+  </si>
+  <si>
+    <t>Business Logic</t>
+  </si>
+  <si>
+    <t>backend/api-server/src/services/approvalService.js</t>
+  </si>
+  <si>
+    <t>Cascade Reject Integration</t>
+  </si>
+  <si>
+    <t>backend/api-server/src/routes/jobs.js</t>
+  </si>
+  <si>
+    <t>Route Integration</t>
+  </si>
+  <si>
+    <t>docs/03-features/JOB-CHAINING-GUIDE.md</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="FreeSans"/>
@@ -3637,14 +3601,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="18"/>
         <color rgb="FF333333"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Features by Role)</t>
+        <family val="1"/>
+      </rPr>
+      <t>(Features by Role)</t>
     </r>
   </si>
   <si>
@@ -3662,8 +3625,7 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -3681,16 +3643,15 @@
         <sz val="11"/>
         <color rgb="FF666666"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Role-Based Access Control)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Role-Based Access Control)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="FreeSans"/>
@@ -3700,20 +3661,19 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Role)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Role)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="FreeSans"/>
@@ -3723,49 +3683,46 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Key Features)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Key Features)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Requester
+        <family val="1"/>
+      </rPr>
+      <t>Requester
 (</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ผู้เปิดงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ผู้เปิดงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -3836,7 +3793,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">คอมเมนต์โต้ตอบ
+      <t>คอมเมนต์โต้ตอบ
 • รับมอบงาน</t>
     </r>
     <r>
@@ -3847,62 +3804,60 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ยืนยันปิดงาน</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>ยืนยันปิดงาน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Approver
+        <family val="1"/>
+      </rPr>
+      <t>Approver
 (</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ผู้อนุมัติ</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ผู้อนุมัติ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="FreeSans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">• ตรวจสอบรายละเอียดงาน
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="FreeSans"/>
+        <family val="2"/>
+      </rPr>
+      <t>• ตรวจสอบรายละเอียดงาน
 • อนุมัติ</t>
     </r>
     <r>
@@ -3913,7 +3868,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -3952,42 +3907,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Approval Chain)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(Approval Chain)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Assignee
+        <family val="1"/>
+      </rPr>
+      <t>Assignee
 (</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ผู้รับงาน</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ผู้รับงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -4029,42 +3982,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Upload Deliverables)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(Upload Deliverables)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Admin
+        <family val="1"/>
+      </rPr>
+      <t>Admin
 (</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ผู้ดูแล</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ผู้ดูแล</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -4144,13 +4095,13 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Assignment Matrix)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>(Assignment Matrix)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="FreeSans"/>
@@ -4160,37 +4111,35 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF1F4E79"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(User Flow)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>(User Flow)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Requester: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ขั้นตอนการเปิดและรับงาน</t>
+      <t>ขั้นตอนการเปิดและรับงาน</t>
     </r>
   </si>
   <si>
@@ -4198,8 +4147,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1. Login → </t>
     </r>
@@ -4215,8 +4163,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -4232,10 +4179,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Project/Job Type</t>
+        <family val="1"/>
+      </rPr>
+      <t>Project/Job Type</t>
     </r>
   </si>
   <si>
@@ -4243,8 +4189,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -4260,8 +4205,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Flow → Skip Approval </t>
     </r>
@@ -4277,10 +4221,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Need Approval</t>
+        <family val="1"/>
+      </rPr>
+      <t>Need Approval</t>
     </r>
   </si>
   <si>
@@ -4288,8 +4231,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
@@ -4305,8 +4247,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Queue </t>
     </r>
@@ -4322,8 +4263,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -4333,7 +4273,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">รอผู้อนุมัติพิจารณา</t>
+      <t>รอผู้อนุมัติพิจารณา</t>
     </r>
   </si>
   <si>
@@ -4341,8 +4281,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">4. </t>
     </r>
@@ -4358,8 +4297,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Chat/Log → </t>
     </r>
@@ -4369,7 +4307,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">รับงานและตรวจสอบ</t>
+      <t>รับงานและตรวจสอบ</t>
     </r>
   </si>
   <si>
@@ -4377,8 +4315,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">5. </t>
     </r>
@@ -4394,8 +4331,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">/ </t>
     </r>
@@ -4405,30 +4341,29 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ขอแก้ไข</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+      <t>ขอแก้ไข</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Approver: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ขั้นตอนการตัดสินใจ</t>
+      <t>ขั้นตอนการตัดสินใจ</t>
     </r>
   </si>
   <si>
@@ -4436,8 +4371,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1. </t>
     </r>
@@ -4453,8 +4387,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Notification → </t>
     </r>
@@ -4470,10 +4403,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SLA</t>
+        <family val="1"/>
+      </rPr>
+      <t>SLA</t>
     </r>
   </si>
   <si>
@@ -4481,8 +4413,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -4498,10 +4429,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Approve (</t>
+        <family val="1"/>
+      </rPr>
+      <t>Approve (</t>
     </r>
     <r>
       <rPr>
@@ -4509,14 +4439,13 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ส่งต่อ</t>
+      <t>ส่งต่อ</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -4532,10 +4461,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Reject (</t>
+        <family val="1"/>
+      </rPr>
+      <t>Reject (</t>
     </r>
     <r>
       <rPr>
@@ -4543,39 +4471,37 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ส่งคืน</t>
+      <t>ส่งคืน</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">Assignee: </t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF0066CC"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ขั้นตอนการปฏิบัติงาน</t>
+      <t>ขั้นตอนการปฏิบัติงาน</t>
     </r>
   </si>
   <si>
@@ -4583,8 +4509,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">1. Receive Job → </t>
     </r>
@@ -4600,10 +4525,9 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">- Acknowledge</t>
+        <family val="1"/>
+      </rPr>
+      <t>- Acknowledge</t>
     </r>
   </si>
   <si>
@@ -4611,8 +4535,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">2. </t>
     </r>
@@ -4622,7 +4545,7 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ปฏิบัติงานและส่งความคืบหน้า</t>
+      <t>ปฏิบัติงานและส่งความคืบหน้า</t>
     </r>
   </si>
   <si>
@@ -4630,8 +4553,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
@@ -4641,18 +4563,144 @@
         <rFont val="FreeSans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ส่งมอบไฟล์งานสุดท้าย</t>
-    </r>
+      <t>ส่งมอบไฟล์งานสุดท้าย</t>
+    </r>
+  </si>
+  <si>
+    <t>หมวดหมู่</t>
+  </si>
+  <si>
+    <t>หัวข้อฟีเจอร์</t>
+  </si>
+  <si>
+    <t>1. การจัดการงาน (Job Management)</t>
+  </si>
+  <si>
+    <t>ผลกระทบของงานด่วน (Urgent Priority)</t>
+  </si>
+  <si>
+    <t>• งาน "ด่วน" จะขยายเวลาส่งงานอื่นในมือ +2 วันอัตโนมัติ</t>
+  </si>
+  <si>
+    <t>• แจ้งเตือนเจ้าของงานที่ได้รับผลกระทบ</t>
+  </si>
+  <si>
+    <t>การนับจำนวนชิ้นงาน (Artwork Count)</t>
+  </si>
+  <si>
+    <t>การนับวันทำงาน (Work Day Calculation)</t>
+  </si>
+  <si>
+    <t>• นับเฉพาะ จันทร์-ศุกร์ (ยกเว้นวันเสาร์-อาทิตย์ และวันหยุดบริษัท)</t>
+  </si>
+  <si>
+    <t>• ส่งงานหลัง 18:00 น. เริ่มนับวันทำการถัดไป</t>
+  </si>
+  <si>
+    <t>สิทธิ์ของกราฟิก (Graphic Rights)</t>
+  </si>
+  <si>
+    <t>• สามารถกด "ยกเลิกงาน" (Eject) ได้หากข้อมูลไม่ครบ/เกินกำหนด</t>
+  </si>
+  <si>
+    <t>• ต้องระบุเหตุผลเพื่อเก็บสถิติ</t>
+  </si>
+  <si>
+    <t>2. ระบบอนุมัติ (Approval Flow)</t>
+  </si>
+  <si>
+    <t>ลำดับการอนุมัติ (มาตรฐาน)</t>
+  </si>
+  <si>
+    <t>• Marketing สร้าง -&gt; Head BU อนุมัติ -&gt; ทีมกลาง (CC) ตรวจ -&gt; กราฟิกรับงาน</t>
+  </si>
+  <si>
+    <t>การข้ามขั้นตอน (Conditional Bypass)</t>
+  </si>
+  <si>
+    <t>การอนุมัติงานตัวเอง (Auto-Approve)</t>
+  </si>
+  <si>
+    <t>• หากคนสร้างงานคือผู้อนุมัติ (เช่น Head BU) ระบบจะอนุมัติให้อัตโนมัติ</t>
+  </si>
+  <si>
+    <t>3. การส่งข้อมูลและไฟล์ (Brief &amp; Files)</t>
+  </si>
+  <si>
+    <t>รูปแบบการส่งบรีฟ (Simplified Brief)</t>
+  </si>
+  <si>
+    <t>• เน้นแนบไฟล์เป็นหลัก ตัดช่องกรอกที่ซ้ำซ้อนออก</t>
+  </si>
+  <si>
+    <t>พื้นที่เก็บไฟล์กลาง (Cloud Storage)</t>
+  </si>
+  <si>
+    <t>• ใช้พื้นที่กลางเก็บไฟล์เพื่อลดความซ้ำซ้อน</t>
+  </si>
+  <si>
+    <t>• ระบบแจ้งเตือนให้ดาวน์โหลดไฟล์เมื่อปิดงานเรียบร้อยแล้ว</t>
+  </si>
+  <si>
+    <t>4. รายงานและติดตามผล (Dashboard)</t>
+  </si>
+  <si>
+    <t>ภาพรวมและการวัดผล</t>
+  </si>
+  <si>
+    <t>• แสดงสถานะ: เสร็จ, ล่าช้า (Overdue), ยกเลิก</t>
+  </si>
+  <si>
+    <t>• วัดผลรายบุคคล/แผนกผ่านอัตราการส่งงานตรงเวลา (On-Time Rate)</t>
+  </si>
+  <si>
+    <t>5. ระบบสมาชิก (User System)</t>
+  </si>
+  <si>
+    <t>การลงทะเบียนและสิทธิ์</t>
+  </si>
+  <si>
+    <t>• ผู้ใช้ลงทะเบียนเองและรอ Admin อนุมัติ</t>
+  </si>
+  <si>
+    <t>• กำหนดสิทธิ์การเข้าถึงข้อมูลตามแผนก (BU Based)</t>
+  </si>
+  <si>
+    <t>• ต้องผ่านการอนุมัติจาก Head BU เท่านั้น</t>
+  </si>
+  <si>
+    <t>เพิ่มการทำงานพ่วง เช่น งานที่ 1 เสร็จแล้ว ให้แจ้งเตือนคนที่2 และเริ่มงานที่2 ได้เป็นการสร้างใบงานรอ</t>
+  </si>
+  <si>
+    <t>เพิ่มสิทธ์การย้ายงานสำหรับ ผู้รับงานกันเองได้</t>
+  </si>
+  <si>
+    <t>Requirement เพิ่ม วันที่ 30 มกราคม</t>
+  </si>
+  <si>
+    <t>Requirement เพิ่ม วันที่ 6 มกราคม</t>
+  </si>
+  <si>
+    <t>เพิ่มการตั้งค่าผู้รับงานสำหรับแต่ละ JobType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ต้องระบุ "จำนวนชิ้นงานย่อย" (เช่น 1 งาน มี 10 รูป)เพื่อให้ Report สะท้อนปริมาณงานจริงของกราฟิก </t>
+  </si>
+  <si>
+    <t>• JobType บางอันต้องผ่านทีมกลาง (CC Team) อนมัติ (อนุมัติ2 และอนุมัติได้หลายคน)</t>
+  </si>
+  <si>
+    <t>• JobType บางอัน เช่น Resize: ข้ามไปหากราฟิกได้เลย</t>
+  </si>
+  <si>
+    <t>• ยังคงมีช่องรายละเอียด แต่ไม่ require</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4661,27 +4709,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="24"/>
       <color rgb="FF333333"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4693,18 +4725,17 @@
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF1F4E79"/>
       <name val="FreeSans"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="FreeSans"/>
       <family val="2"/>
@@ -4713,8 +4744,7 @@
       <sz val="11"/>
       <color rgb="FF0066CC"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4723,11 +4753,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4745,34 +4774,31 @@
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF333333"/>
       <name val="FreeSans"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <color rgb="FF333333"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF1F4E79"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF1F4E79"/>
       <name val="FreeSans"/>
@@ -4786,11 +4812,10 @@
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="FreeSans"/>
@@ -4803,41 +4828,36 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF8C00"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF666666"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4852,30 +4872,28 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F4E79"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF1F4E79"/>
       <name val="FreeSans"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF0066CC"/>
       <name val="FreeSans"/>
@@ -4884,13 +4902,26 @@
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -4949,254 +4980,137 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -5255,33 +5169,925 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F4E79"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C877A9-B4F2-2C47-B61D-9846ED7D0D70}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.6640625" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32">
+      <c r="B5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="51" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B20" t="s">
+        <v>373</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="39.75" customHeight="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="16">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="7" spans="2:8" ht="18">
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:H28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="4" spans="2:8" ht="16">
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="34.5" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="16">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16">
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="16">
+      <c r="B22" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:AH20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:34" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5289,446 +6095,34 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:H4"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:H28"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B5:H5"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:AH20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="7" style="0" width="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15"/>
-      <c r="AG2" s="15"/>
-      <c r="AH2" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+    </row>
+    <row r="4" spans="2:34">
       <c r="B4" s="16" t="s">
         <v>71</v>
       </c>
@@ -5784,17 +6178,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:34">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>92</v>
       </c>
       <c r="F5" s="18" t="s">
@@ -5803,7 +6197,7 @@
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:34">
       <c r="B6" s="20" t="s">
         <v>89</v>
       </c>
@@ -5823,17 +6217,17 @@
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:34">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="18" t="s">
@@ -5842,7 +6236,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:34">
       <c r="B8" s="20" t="s">
         <v>99</v>
       </c>
@@ -5862,17 +6256,17 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:34">
+      <c r="B9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>103</v>
       </c>
       <c r="F9" s="18" t="s">
@@ -5883,7 +6277,7 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:34">
       <c r="B10" s="20" t="s">
         <v>99</v>
       </c>
@@ -5903,17 +6297,17 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:34">
+      <c r="B11" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>108</v>
       </c>
       <c r="F11" s="22" t="s">
@@ -5922,7 +6316,7 @@
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:34">
       <c r="B12" s="20" t="s">
         <v>110</v>
       </c>
@@ -5943,17 +6337,17 @@
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:34">
+      <c r="B13" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>117</v>
       </c>
       <c r="F13" s="26" t="s">
@@ -5963,7 +6357,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:34">
       <c r="B14" s="20" t="s">
         <v>110</v>
       </c>
@@ -5983,17 +6377,17 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="2:34">
+      <c r="B15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>123</v>
       </c>
       <c r="F15" s="26" t="s">
@@ -6003,7 +6397,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:34">
       <c r="B16" s="20" t="s">
         <v>121</v>
       </c>
@@ -6023,17 +6417,17 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:19">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>129</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -6041,8 +6435,8 @@
       </c>
       <c r="S17" s="25"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:19">
+      <c r="B20" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -6062,76 +6456,68 @@
   <mergeCells count="1">
     <mergeCell ref="B2:AH2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:17" ht="30" customHeight="1">
+      <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:17">
       <c r="B5" s="28" t="s">
         <v>136</v>
       </c>
@@ -6141,58 +6527,58 @@
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+    <row r="6" spans="2:17">
+      <c r="C6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>138</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+    <row r="7" spans="2:17">
+      <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+    <row r="8" spans="2:17">
+      <c r="C8" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:17">
       <c r="B9" s="28" t="s">
         <v>143</v>
       </c>
@@ -6202,58 +6588,58 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="2:17">
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+    <row r="11" spans="2:17">
+      <c r="C11" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+    <row r="12" spans="2:17">
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>147</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:17">
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
         <v>107</v>
@@ -6267,11 +6653,11 @@
       <c r="F13" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="30" t="n">
+      <c r="G13" s="30">
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:17">
       <c r="B14" s="28" t="s">
         <v>150</v>
       </c>
@@ -6281,58 +6667,58 @@
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
+    <row r="15" spans="2:17">
+      <c r="C15" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
+    <row r="16" spans="2:17">
+      <c r="C16" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>155</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+    <row r="17" spans="2:7">
+      <c r="C17" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>158</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:7">
       <c r="B18" s="28" t="s">
         <v>159</v>
       </c>
@@ -6342,62 +6728,62 @@
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+    <row r="19" spans="2:7">
+      <c r="C19" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>156</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>160</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19">
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="2:7">
+      <c r="C20" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:7">
+      <c r="B24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="32" t="s">
@@ -6411,50 +6797,42 @@
   <mergeCells count="1">
     <mergeCell ref="B2:Q2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="18"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:9" ht="30" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="34" t="s">
         <v>167</v>
       </c>
@@ -6480,401 +6858,401 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>171</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>142</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="2:9">
+      <c r="B9" t="s">
         <v>181</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>179</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="2:9">
+      <c r="B10" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:9">
+      <c r="B11" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="2:9">
+      <c r="B12" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>155</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>190</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>161</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>194</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>163</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>197</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9" ht="16">
       <c r="B20" s="35" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:9">
+      <c r="B22" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
+    <row r="23" spans="2:9">
+      <c r="B23" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>203</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="2:9">
+      <c r="B25" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6882,46 +7260,36 @@
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="50"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="5" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" ht="30" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="36" t="s">
         <v>215</v>
       </c>
@@ -6938,7 +7306,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" ht="49.5" customHeight="1">
       <c r="B5" s="37" t="s">
         <v>220</v>
       </c>
@@ -6955,7 +7323,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" ht="49.5" customHeight="1">
       <c r="B6" s="38" t="s">
         <v>225</v>
       </c>
@@ -6972,7 +7340,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" ht="49.5" customHeight="1">
       <c r="B7" s="37" t="s">
         <v>230</v>
       </c>
@@ -6989,7 +7357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" ht="49.5" customHeight="1">
       <c r="B8" s="38" t="s">
         <v>235</v>
       </c>
@@ -7006,7 +7374,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" ht="49.5" customHeight="1">
       <c r="B9" s="37" t="s">
         <v>240</v>
       </c>
@@ -7023,23 +7391,23 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:6" ht="16">
       <c r="B11" s="35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:6">
+      <c r="B13" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:6" ht="45" customHeight="1">
       <c r="B14" s="40" t="s">
         <v>248</v>
       </c>
@@ -7050,7 +7418,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:6" ht="45" customHeight="1">
       <c r="B15" s="40" t="s">
         <v>250</v>
       </c>
@@ -7061,7 +7429,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:6" ht="45" customHeight="1">
       <c r="B16" s="40" t="s">
         <v>252</v>
       </c>
@@ -7072,29 +7440,29 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:4" ht="16">
       <c r="B18" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" s="7" t="s">
         <v>254</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D22" s="42" t="s">
@@ -7105,47 +7473,37 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="45"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" ht="30" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="43" t="s">
         <v>260</v>
       </c>
@@ -7162,7 +7520,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" ht="45" customHeight="1">
       <c r="B5" s="44" t="s">
         <v>265</v>
       </c>
@@ -7179,7 +7537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" ht="45" customHeight="1">
       <c r="B6" s="45" t="s">
         <v>270</v>
       </c>
@@ -7196,7 +7554,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" ht="45" customHeight="1">
       <c r="B7" s="44" t="s">
         <v>275</v>
       </c>
@@ -7213,7 +7571,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" ht="45" customHeight="1">
       <c r="B8" s="45" t="s">
         <v>280</v>
       </c>
@@ -7230,7 +7588,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" ht="45" customHeight="1">
       <c r="B9" s="44" t="s">
         <v>285</v>
       </c>
@@ -7247,7 +7605,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:6" ht="45" customHeight="1">
       <c r="B10" s="45" t="s">
         <v>290</v>
       </c>
@@ -7264,7 +7622,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:6" ht="45" customHeight="1">
       <c r="B11" s="44" t="s">
         <v>295</v>
       </c>
@@ -7281,76 +7639,76 @@
         <v>299</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:6" ht="16">
       <c r="B13" s="35" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:6">
       <c r="B15" s="46" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:6">
       <c r="B16" s="46" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3">
       <c r="B17" s="46" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" ht="16">
       <c r="B19" s="35" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>313</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>316</v>
       </c>
     </row>
@@ -7358,48 +7716,38 @@
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:5" ht="30" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="33" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:5">
       <c r="B6" s="36" t="s">
         <v>319</v>
       </c>
@@ -7407,7 +7755,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:5" ht="79.5" customHeight="1">
       <c r="B7" s="47" t="s">
         <v>321</v>
       </c>
@@ -7415,7 +7763,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:5" ht="79.5" customHeight="1">
       <c r="B8" s="48" t="s">
         <v>323</v>
       </c>
@@ -7423,7 +7771,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:5" ht="79.5" customHeight="1">
       <c r="B9" s="47" t="s">
         <v>325</v>
       </c>
@@ -7431,7 +7779,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:5" ht="79.5" customHeight="1">
       <c r="B10" s="48" t="s">
         <v>327</v>
       </c>
@@ -7439,72 +7787,72 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:5" ht="16">
       <c r="B13" s="35" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:5">
       <c r="B15" s="49" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:2">
       <c r="B17" s="50" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:2">
       <c r="B18" s="50" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:2">
       <c r="B19" s="50" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:2">
       <c r="B20" s="50" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:2">
       <c r="B21" s="50" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:2">
       <c r="B23" s="49" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:2">
       <c r="B25" s="50" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:2">
       <c r="B26" s="50" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:2">
       <c r="B28" s="49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:2">
       <c r="B30" s="50" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:2">
       <c r="B31" s="50" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:2">
       <c r="B32" s="50" t="s">
         <v>342</v>
       </c>
@@ -7513,12 +7861,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>